--- a/public/uploads/offer/excel.xlsx
+++ b/public/uploads/offer/excel.xlsx
@@ -485,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -505,7 +505,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -525,7 +525,7 @@
         <v>19</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
